--- a/reports/demo.xlsx
+++ b/reports/demo.xlsx
@@ -44,7 +44,7 @@
     <t>Classificação: Restrito</t>
   </si>
   <si>
-    <t>Última atualização: 19/11/2024</t>
+    <t>Última atualização: 20/11/2024</t>
   </si>
   <si>
     <t>Versão: 1.0</t>

--- a/reports/demo.xlsx
+++ b/reports/demo.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="58">
   <si>
     <t>HyDrive - Monitoring System</t>
   </si>
@@ -48,6 +48,168 @@
   </si>
   <si>
     <t>Versão: 1.0</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Num Turbina</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>Vel Água (m/s)</t>
+  </si>
+  <si>
+    <t>Potência (W)</t>
+  </si>
+  <si>
+    <t>20/11/2024 10:57:21</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>20/11/2024 10:58:36</t>
+  </si>
+  <si>
+    <t>20/11/2024 10:58:56</t>
+  </si>
+  <si>
+    <t>20/11/2024 10:59:46</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:00:05</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:00:25</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:00:55</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:02:21</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:03:57</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:05:32</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:19:38</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:25:14</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:26:15</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:27:08</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:31:23</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:35:41</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:35:43</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:35:45</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:35:47</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:54:22</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:54:24</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:54:26</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:57:32</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:58:55</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:58:57</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:58:59</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:01</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:03</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:06</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:08</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:10</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:45</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:47</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:49</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:51</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:53</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:55</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:57</t>
+  </si>
+  <si>
+    <t>20/11/2024 11:59:59</t>
+  </si>
+  <si>
+    <t>20/11/2024 12:00:01</t>
+  </si>
+  <si>
+    <t>20/11/2024 12:00:03</t>
+  </si>
+  <si>
+    <t>20/11/2024 12:00:05</t>
+  </si>
+  <si>
+    <t>20/11/2024 12:00:07</t>
+  </si>
+  <si>
+    <t>20/11/2024 12:02:06</t>
+  </si>
+  <si>
+    <t>20/11/2024 12:02:36</t>
+  </si>
+  <si>
+    <t>20/11/2024 12:03:37</t>
   </si>
 </sst>
 </file>
@@ -64,7 +226,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color rgb="FF2C6FC3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -176,6 +338,20 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
 </richValueRels>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="relatorio" displayName="relatorio" ref="B5:F144" totalsRowCount="1">
+  <autoFilter ref="B5:F143"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Data" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Num Turbina"/>
+    <tableColumn id="3" name="Operação"/>
+    <tableColumn id="4" name="Vel Água (m/s)"/>
+    <tableColumn id="5" name="Potência (W)" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,13 +639,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:7">
       <c r="B2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -479,41 +655,2410 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>1.27</v>
+      </c>
+      <c r="F7">
+        <v>4096.767</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1.13</v>
+      </c>
+      <c r="F9">
+        <v>2885.794</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>0.52</v>
+      </c>
+      <c r="F10">
+        <v>281.216</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>0.78</v>
+      </c>
+      <c r="F12">
+        <v>949.104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1.68</v>
+      </c>
+      <c r="F13">
+        <v>9483.263999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>1.13</v>
+      </c>
+      <c r="F15">
+        <v>2885.794</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>1.07</v>
+      </c>
+      <c r="F16">
+        <v>2450.087</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>1.21</v>
+      </c>
+      <c r="F18">
+        <v>3543.122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="F19">
+        <v>843.75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>0.57</v>
+      </c>
+      <c r="F21">
+        <v>370.386</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>1.51</v>
+      </c>
+      <c r="F24">
+        <v>6885.902</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>1.15</v>
+      </c>
+      <c r="F25">
+        <v>3041.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>0.59</v>
+      </c>
+      <c r="F27">
+        <v>410.758</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>1.13</v>
+      </c>
+      <c r="F28">
+        <v>2885.794</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F30">
+        <v>351.233</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>0.88</v>
+      </c>
+      <c r="F31">
+        <v>1362.944</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>0.74</v>
+      </c>
+      <c r="F33">
+        <v>810.448</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>1.37</v>
+      </c>
+      <c r="F34">
+        <v>5142.707</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>1.38</v>
+      </c>
+      <c r="F36">
+        <v>5256.144</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>1.12</v>
+      </c>
+      <c r="F37">
+        <v>2809.857</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>1.43</v>
+      </c>
+      <c r="F39">
+        <v>5848.414</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>0.84</v>
+      </c>
+      <c r="F40">
+        <v>1185.408</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0.98</v>
+      </c>
+      <c r="F42">
+        <v>1882.384</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>0.95</v>
+      </c>
+      <c r="F43">
+        <v>1714.75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>0.92</v>
+      </c>
+      <c r="F45">
+        <v>1557.377</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>1.96</v>
+      </c>
+      <c r="F46">
+        <v>15059.072</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>0.62</v>
+      </c>
+      <c r="F48">
+        <v>476.656</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>0.6</v>
+      </c>
+      <c r="F49">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>1.94</v>
+      </c>
+      <c r="F51">
+        <v>14602.768</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>0.54</v>
+      </c>
+      <c r="F52">
+        <v>314.929</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>0.89</v>
+      </c>
+      <c r="F54">
+        <v>1409.938</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>1.27</v>
+      </c>
+      <c r="F57">
+        <v>4096.767</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>1.99</v>
+      </c>
+      <c r="F58">
+        <v>15761.198</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>1.78</v>
+      </c>
+      <c r="F60">
+        <v>11279.504</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>1.09</v>
+      </c>
+      <c r="F61">
+        <v>2590.059</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63">
+        <v>1.76</v>
+      </c>
+      <c r="F63">
+        <v>10903.552</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64">
+        <v>1.09</v>
+      </c>
+      <c r="F64">
+        <v>2590.059</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>1.76</v>
+      </c>
+      <c r="F66">
+        <v>10903.552</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <v>0.66</v>
+      </c>
+      <c r="F67">
+        <v>574.9930000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69">
+        <v>1.21</v>
+      </c>
+      <c r="F69">
+        <v>3543.122</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70">
+        <v>1.73</v>
+      </c>
+      <c r="F70">
+        <v>10355.434</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72">
+        <v>1.92</v>
+      </c>
+      <c r="F72">
+        <v>14155.776</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>1.32</v>
+      </c>
+      <c r="F73">
+        <v>4599.937</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>0.51</v>
+      </c>
+      <c r="F75">
+        <v>265.302</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76">
+        <v>0.89</v>
+      </c>
+      <c r="F76">
+        <v>1409.938</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78">
+        <v>1.3</v>
+      </c>
+      <c r="F78">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79">
+        <v>1.76</v>
+      </c>
+      <c r="F79">
+        <v>10903.552</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81">
+        <v>1.49</v>
+      </c>
+      <c r="F81">
+        <v>6615.898</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>1.95</v>
+      </c>
+      <c r="F82">
+        <v>14829.75</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84">
+        <v>1.5</v>
+      </c>
+      <c r="F84">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F85">
+        <v>1062.882</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87">
+        <v>1.22</v>
+      </c>
+      <c r="F87">
+        <v>3631.696</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88">
+        <v>1.31</v>
+      </c>
+      <c r="F88">
+        <v>4496.182</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90">
+        <v>1.09</v>
+      </c>
+      <c r="F90">
+        <v>2590.059</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>1.15</v>
+      </c>
+      <c r="F91">
+        <v>3041.75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93">
+        <v>0.87</v>
+      </c>
+      <c r="F93">
+        <v>1317.006</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>1.74</v>
+      </c>
+      <c r="F94">
+        <v>10536.048</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96">
+        <v>1.88</v>
+      </c>
+      <c r="F96">
+        <v>13289.344</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F97">
+        <v>351.233</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99">
+        <v>0.8</v>
+      </c>
+      <c r="F99">
+        <v>1024.001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>0.79</v>
+      </c>
+      <c r="F100">
+        <v>986.079</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102">
+        <v>1.68</v>
+      </c>
+      <c r="F102">
+        <v>9483.263999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103">
+        <v>1.81</v>
+      </c>
+      <c r="F103">
+        <v>11859.483</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105">
+        <v>0.76</v>
+      </c>
+      <c r="F105">
+        <v>877.953</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106">
+        <v>1.65</v>
+      </c>
+      <c r="F106">
+        <v>8984.25</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108">
+        <v>0.64</v>
+      </c>
+      <c r="F108">
+        <v>524.289</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109">
+        <v>0.71</v>
+      </c>
+      <c r="F109">
+        <v>715.822</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111">
+        <v>1.05</v>
+      </c>
+      <c r="F111">
+        <v>2315.251</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112">
+        <v>1.39</v>
+      </c>
+      <c r="F112">
+        <v>5371.238</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>1.75</v>
+      </c>
+      <c r="F114">
+        <v>10718.75</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115">
+        <v>1.55</v>
+      </c>
+      <c r="F115">
+        <v>7447.751</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117">
+        <v>1.65</v>
+      </c>
+      <c r="F117">
+        <v>8984.25</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118">
+        <v>0.98</v>
+      </c>
+      <c r="F118">
+        <v>1882.384</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" t="s">
+        <v>50</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>1.78</v>
+      </c>
+      <c r="F120">
+        <v>11279.504</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121">
+        <v>0.78</v>
+      </c>
+      <c r="F121">
+        <v>949.104</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123">
+        <v>1.06</v>
+      </c>
+      <c r="F123">
+        <v>2382.032</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124">
+        <v>1.19</v>
+      </c>
+      <c r="F124">
+        <v>3370.318</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126">
+        <v>1.14</v>
+      </c>
+      <c r="F126">
+        <v>2963.088</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127">
+        <v>1.11</v>
+      </c>
+      <c r="F127">
+        <v>2735.263</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129">
+        <v>0.96</v>
+      </c>
+      <c r="F129">
+        <v>1769.472</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130">
+        <v>1.75</v>
+      </c>
+      <c r="F130">
+        <v>10718.75</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132">
+        <v>1.88</v>
+      </c>
+      <c r="F132">
+        <v>13289.344</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133">
+        <v>0.64</v>
+      </c>
+      <c r="F133">
+        <v>524.289</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>1.24</v>
+      </c>
+      <c r="F135">
+        <v>3813.248</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136">
+        <v>1.28</v>
+      </c>
+      <c r="F136">
+        <v>4194.305</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138">
+        <v>1.11</v>
+      </c>
+      <c r="F138">
+        <v>2735.263</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139">
+        <v>1.57</v>
+      </c>
+      <c r="F139">
+        <v>7739.786</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141">
+        <v>1.56</v>
+      </c>
+      <c r="F141">
+        <v>7592.832</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142">
+        <v>1.95</v>
+      </c>
+      <c r="F142">
+        <v>14829.75</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144">
+        <f>SUBTOTAL(109,[Potência (W)])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:H4"/>
+    <mergeCell ref="C2:F4"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>